--- a/需求优先级打分/SRA2023-G17-需求优先级打分（教师用户）.xlsx
+++ b/需求优先级打分/SRA2023-G17-需求优先级打分（教师用户）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40980\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\文档\GitHub\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48AEBBCE-3B09-49CB-AC26-90129E59FDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C898392B-2133-4366-8F7D-B8EAEFC81CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1965" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>相对权重</t>
   </si>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.4.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个人中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,9 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t xml:space="preserve">    搜索课件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,34 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    平时成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    作业成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    大作业成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    期中成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    期末成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    成绩构成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    期末总评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">手机绑定 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,11 +337,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  编辑成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个人信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛版块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +353,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,14 +382,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -484,10 +448,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -511,8 +475,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差_Sheet1" xfId="1" xr:uid="{5E5ED5F0-D885-49BF-BF94-9D0E49259152}"/>
@@ -1633,20 +1599,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.08203125" customWidth="1"/>
-    <col min="3" max="11" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="11" width="11.875" customWidth="1"/>
     <col min="13" max="13" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1663,7 +1629,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1680,7 +1646,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1697,14 +1663,14 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
         <f>SUM((C:C)*2,(D:D))</f>
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1717,7 +1683,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1734,7 +1700,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1751,7 +1717,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1768,7 +1734,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1785,7 +1751,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1802,7 +1768,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1819,7 +1785,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1836,7 +1802,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1853,7 +1819,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1870,7 +1836,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1887,7 +1853,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1904,7 +1870,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1921,7 +1887,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1938,7 +1904,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1955,7 +1921,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1972,7 +1938,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1989,7 +1955,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -2016,7 +1982,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -2030,7 +1996,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
@@ -2055,7 +2021,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -2076,7 +2042,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -2120,7 +2086,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1.2</v>
       </c>
@@ -2134,18 +2100,18 @@
         <v>9</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ref="E25:E88" si="0">C25*2+D25</f>
+        <f t="shared" ref="E25:E82" si="0">C25*2+D25</f>
         <v>27</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" ref="F25:F88" si="1">E25/1162</f>
+        <f t="shared" ref="F25:F82" si="1">E25/1162</f>
         <v>2.323580034423408E-2</v>
       </c>
       <c r="G25" s="1">
         <v>4</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" ref="H25:H88" si="2">G25/348</f>
+        <f t="shared" ref="H25:H81" si="2">G25/348</f>
         <v>1.1494252873563218E-2</v>
       </c>
       <c r="I25" s="1">
@@ -2164,12 +2130,12 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1.3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C26" s="1">
         <v>9</v>
@@ -2196,11 +2162,11 @@
         <v>2</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" ref="J26:J90" si="3">I26/267</f>
+        <f t="shared" ref="J26:J84" si="3">I26/267</f>
         <v>7.4906367041198503E-3</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" ref="K26:K90" si="4">F26/(H26+J26*0.5)</f>
+        <f t="shared" ref="K26:K84" si="4">F26/(H26+J26*0.5)</f>
         <v>1.235303321766823</v>
       </c>
       <c r="L26" s="1"/>
@@ -2208,12 +2174,12 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1.4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1">
         <v>9</v>
@@ -2252,12 +2218,12 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1.5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1">
         <v>9</v>
@@ -2296,12 +2262,12 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1.6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1">
         <v>7</v>
@@ -2337,7 +2303,7 @@
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1.7</v>
       </c>
@@ -2381,7 +2347,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1.8</v>
       </c>
@@ -2425,12 +2391,12 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1.9</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1">
         <v>9</v>
@@ -2439,168 +2405,166 @@
         <v>9</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="1"/>
-        <v>2.323580034423408E-2</v>
+        <f>E32/E89</f>
+        <v>2.4064171122994651E-2</v>
       </c>
       <c r="G32" s="1">
         <v>5</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
+        <f>G32/333</f>
+        <v>1.5015015015015015E-2</v>
       </c>
       <c r="I32" s="1">
         <v>2</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="3"/>
+        <f>I32/267</f>
         <v>7.4906367041198503E-3</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
-        <v>1.2828149879886239</v>
+        <f>F32/(H32*1+J32*0.5)</f>
+        <v>1.2827155387989073</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
+        <v>25</v>
+      </c>
+      <c r="F33" s="5">
+        <f>E33/E89</f>
+        <v>2.2281639928698752E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5</v>
+      </c>
+      <c r="H33" s="5">
+        <f>G33/333</f>
+        <v>1.5015015015015015E-2</v>
+      </c>
+      <c r="I33" s="1">
         <v>2</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="1"/>
       <c r="J33" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="1"/>
+        <f>I33/267</f>
+        <v>7.4906367041198503E-3</v>
+      </c>
+      <c r="K33" s="1">
+        <f>F33/(H33*1+J33*0.5)</f>
+        <v>1.1876995729619513</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="2"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>2.1</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="1"/>
-        <v>1.7211703958691909E-2</v>
+        <v>2.323580034423408E-2</v>
       </c>
       <c r="G34" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="2"/>
-        <v>2.0114942528735632E-2</v>
+        <v>1.4367816091954023E-2</v>
       </c>
       <c r="I34" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J34" s="5">
         <f t="shared" si="3"/>
-        <v>2.247191011235955E-2</v>
+        <v>7.4906367041198503E-3</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="4"/>
-        <v>0.5490019516051553</v>
+        <v>1.2828149879886239</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="2"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="1">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1">
-        <v>6</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7211703958691909E-2</v>
-      </c>
-      <c r="G35" s="1">
-        <v>7</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" si="2"/>
-        <v>2.0114942528735632E-2</v>
-      </c>
-      <c r="I35" s="1">
-        <v>6</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="1"/>
       <c r="J35" s="5">
         <f t="shared" si="3"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="4"/>
-        <v>0.5490019516051553</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="2"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="1"/>
-        <v>1.9793459552495698E-2</v>
+        <v>1.7211703958691909E-2</v>
       </c>
       <c r="G36" s="1">
         <v>7</v>
@@ -2610,178 +2574,182 @@
         <v>2.0114942528735632E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J36" s="5">
         <f t="shared" si="3"/>
-        <v>2.9962546816479401E-2</v>
+        <v>2.247191011235955E-2</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="4"/>
-        <v>0.56397702783799153</v>
+        <v>0.5490019516051553</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="2"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7211703958691909E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>7</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0114942528735632E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>6</v>
+      </c>
       <c r="J37" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="1"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5490019516051553</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="2"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="1"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9793459552495698E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>7</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0114942528735632E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>8</v>
+      </c>
       <c r="J38" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="1"/>
+        <v>2.9962546816479401E-2</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.56397702783799153</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="2"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="1">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" si="1"/>
-        <v>2.0654044750430294E-2</v>
-      </c>
-      <c r="G39" s="1">
-        <v>5</v>
-      </c>
-      <c r="H39" s="5">
-        <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
-      </c>
-      <c r="I39" s="1">
-        <v>2</v>
-      </c>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="1"/>
       <c r="J39" s="5">
         <f t="shared" si="3"/>
-        <v>7.4906367041198503E-3</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="4"/>
-        <v>1.1402799893232212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="2"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="1">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1">
-        <v>8</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="F40" s="5">
-        <f t="shared" si="1"/>
-        <v>2.0654044750430294E-2</v>
-      </c>
-      <c r="G40" s="1">
-        <v>6</v>
-      </c>
-      <c r="H40" s="5">
-        <f t="shared" si="2"/>
-        <v>1.7241379310344827E-2</v>
-      </c>
-      <c r="I40" s="1">
-        <v>2</v>
-      </c>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="1"/>
       <c r="J40" s="5">
         <f t="shared" si="3"/>
-        <v>7.4906367041198503E-3</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="4"/>
-        <v>0.98414934463127246</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="2"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C41" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="1"/>
-        <v>1.8072289156626505E-2</v>
+        <v>2.0654044750430294E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" si="2"/>
-        <v>1.7241379310344827E-2</v>
+        <v>1.4367816091954023E-2</v>
       </c>
       <c r="I41" s="1">
         <v>2</v>
@@ -2792,31 +2760,31 @@
       </c>
       <c r="K41" s="1">
         <f t="shared" si="4"/>
-        <v>0.86113067655236331</v>
+        <v>1.1402799893232212</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="2" t="s">
-        <v>32</v>
+      <c r="B42" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C42" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="1"/>
-        <v>1.8072289156626505E-2</v>
+        <v>2.0654044750430294E-2</v>
       </c>
       <c r="G42" s="1">
         <v>6</v>
@@ -2834,31 +2802,31 @@
       </c>
       <c r="K42" s="1">
         <f t="shared" si="4"/>
-        <v>0.86113067655236331</v>
+        <v>0.98414934463127246</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="2"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C43" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="1"/>
-        <v>1.4629948364888123E-2</v>
+        <v>1.8072289156626505E-2</v>
       </c>
       <c r="G43" s="1">
         <v>6</v>
@@ -2868,88 +2836,88 @@
         <v>1.7241379310344827E-2</v>
       </c>
       <c r="I43" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" s="5">
         <f t="shared" si="3"/>
-        <v>1.1235955056179775E-2</v>
+        <v>7.4906367041198503E-3</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="4"/>
-        <v>0.63999824965722452</v>
+        <v>0.86113067655236331</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="2"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>34</v>
+      <c r="B44" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C44" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="1"/>
-        <v>1.549053356282272E-2</v>
+        <v>1.8072289156626505E-2</v>
       </c>
       <c r="G44" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="2"/>
-        <v>2.0114942528735632E-2</v>
+        <v>1.7241379310344827E-2</v>
       </c>
       <c r="I44" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" s="5">
         <f t="shared" si="3"/>
-        <v>1.1235955056179775E-2</v>
+        <v>7.4906367041198503E-3</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="4"/>
-        <v>0.60197340716153735</v>
+        <v>0.86113067655236331</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="2"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C45" s="1">
         <v>6</v>
       </c>
       <c r="D45" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="1"/>
-        <v>1.549053356282272E-2</v>
+        <v>1.4629948364888123E-2</v>
       </c>
       <c r="G45" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H45" s="5">
         <f t="shared" si="2"/>
-        <v>2.0114942528735632E-2</v>
+        <v>1.7241379310344827E-2</v>
       </c>
       <c r="I45" s="1">
         <v>3</v>
@@ -2960,131 +2928,131 @@
       </c>
       <c r="K45" s="1">
         <f t="shared" si="4"/>
-        <v>0.60197340716153735</v>
+        <v>0.63999824965722452</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="2"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6</v>
+      </c>
       <c r="E46" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>1.549053356282272E-2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>7</v>
+      </c>
       <c r="H46" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="1"/>
+        <v>2.0114942528735632E-2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>3</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="4"/>
+        <v>0.60197340716153735</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="2"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C47" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="1"/>
-        <v>1.8072289156626505E-2</v>
+        <v>1.549053356282272E-2</v>
       </c>
       <c r="G47" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
+        <v>2.0114942528735632E-2</v>
       </c>
       <c r="I47" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J47" s="5">
         <f t="shared" si="3"/>
-        <v>2.247191011235955E-2</v>
+        <v>1.1235955056179775E-2</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="4"/>
-        <v>0.70584481684619937</v>
+        <v>0.60197340716153735</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="2"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="B48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="1">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1">
-        <v>7</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="1"/>
-        <v>1.8072289156626505E-2</v>
-      </c>
-      <c r="G48" s="1">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="5">
         <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
-      </c>
-      <c r="I48" s="1">
-        <v>6</v>
-      </c>
-      <c r="J48" s="5">
-        <f t="shared" si="3"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="4"/>
-        <v>0.70584481684619937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="2" t="s">
-        <v>82</v>
+      <c r="B49" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C49" s="1">
         <v>7</v>
@@ -3100,131 +3068,131 @@
         <f t="shared" si="1"/>
         <v>1.8072289156626505E-2</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1">
+        <v>5</v>
+      </c>
       <c r="H49" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="1"/>
+        <v>1.4367816091954023E-2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>6</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="3"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="4"/>
+        <v>0.70584481684619937</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>24</v>
-      </c>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8072289156626505E-2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>5</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4367816091954023E-2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>6</v>
+      </c>
       <c r="J50" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="1"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="4"/>
+        <v>0.70584481684619937</v>
+      </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C51" s="1">
         <v>7</v>
       </c>
       <c r="D51" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" si="1"/>
-        <v>1.7211703958691909E-2</v>
-      </c>
-      <c r="G51" s="1">
-        <v>9</v>
-      </c>
+        <v>1.8072289156626505E-2</v>
+      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="5">
         <f t="shared" si="2"/>
-        <v>2.5862068965517241E-2</v>
-      </c>
-      <c r="I51" s="1">
-        <v>5</v>
-      </c>
-      <c r="J51" s="5">
-        <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="4"/>
-        <v>0.48861676902713641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="1">
-        <v>7</v>
-      </c>
-      <c r="D52" s="1">
-        <v>6</v>
-      </c>
-      <c r="E52" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F52" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7211703958691909E-2</v>
-      </c>
-      <c r="G52" s="1">
-        <v>9</v>
-      </c>
-      <c r="H52" s="5">
-        <f t="shared" si="2"/>
-        <v>2.5862068965517241E-2</v>
-      </c>
-      <c r="I52" s="1">
-        <v>5</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="1"/>
       <c r="J52" s="5">
         <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="4"/>
-        <v>0.48861676902713641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C53" s="1">
         <v>7</v>
@@ -3263,10 +3231,10 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C54" s="1">
         <v>7</v>
@@ -3305,63 +3273,94 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C55" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55" s="1">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7211703958691909E-2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>9</v>
+      </c>
+      <c r="H55" s="5">
+        <f t="shared" si="2"/>
+        <v>2.5862068965517241E-2</v>
+      </c>
+      <c r="I55" s="1">
         <v>5</v>
       </c>
-      <c r="E55" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="F55" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4629948364888123E-2</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="1"/>
+      <c r="J55" s="5">
+        <f t="shared" si="3"/>
+        <v>1.8726591760299626E-2</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48861676902713641</v>
+      </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>25</v>
-      </c>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C56" s="1">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7211703958691909E-2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>9</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" si="2"/>
+        <v>2.5862068965517241E-2</v>
+      </c>
+      <c r="I56" s="1">
+        <v>5</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="3"/>
+        <v>1.8726591760299626E-2</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48861676902713641</v>
+      </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C57" s="1">
         <v>6</v>
@@ -3377,96 +3376,67 @@
         <f t="shared" si="1"/>
         <v>1.4629948364888123E-2</v>
       </c>
-      <c r="G57" s="1">
-        <v>5</v>
-      </c>
+      <c r="G57" s="1"/>
       <c r="H57" s="5">
         <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
-      </c>
-      <c r="I57" s="1">
-        <v>5</v>
-      </c>
-      <c r="J57" s="5">
-        <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="4"/>
-        <v>0.6164881098738979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="1">
-        <v>6</v>
-      </c>
-      <c r="D58" s="1">
-        <v>5</v>
-      </c>
-      <c r="E58" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="F58" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4629948364888123E-2</v>
-      </c>
-      <c r="G58" s="1">
-        <v>5</v>
-      </c>
-      <c r="H58" s="5">
-        <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
-      </c>
-      <c r="I58" s="1">
-        <v>5</v>
-      </c>
-      <c r="J58" s="5">
-        <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K58" s="1">
-        <f t="shared" si="4"/>
-        <v>0.6164881098738979</v>
-      </c>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="7" t="s">
-        <v>43</v>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C59" s="1">
         <v>6</v>
       </c>
       <c r="D59" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F59" s="5">
         <f t="shared" si="1"/>
-        <v>1.4629948364888123E-2</v>
+        <v>1.549053356282272E-2</v>
       </c>
       <c r="G59" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H59" s="5">
         <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
+        <v>1.7241379310344827E-2</v>
       </c>
       <c r="I59" s="1">
         <v>5</v>
@@ -3477,159 +3447,149 @@
       </c>
       <c r="K59" s="1">
         <f t="shared" si="4"/>
-        <v>0.6164881098738979</v>
+        <v>0.58224855037347722</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="7" t="s">
-        <v>44</v>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C60" s="1">
         <v>6</v>
       </c>
       <c r="D60" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" si="1"/>
-        <v>1.4629948364888123E-2</v>
+        <v>1.549053356282272E-2</v>
       </c>
       <c r="G60" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H60" s="5">
         <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
+        <v>2.0114942528735632E-2</v>
       </c>
       <c r="I60" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J60" s="5">
         <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
+        <v>2.6217228464419477E-2</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="4"/>
-        <v>0.6164881098738979</v>
+        <v>0.46625151166933454</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="7" t="s">
-        <v>45</v>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C61" s="1">
         <v>6</v>
       </c>
       <c r="D61" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" si="1"/>
-        <v>1.4629948364888123E-2</v>
+        <v>1.549053356282272E-2</v>
       </c>
       <c r="G61" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H61" s="5">
         <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
+        <v>2.0114942528735632E-2</v>
       </c>
       <c r="I61" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J61" s="5">
         <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
+        <v>2.6217228464419477E-2</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="4"/>
-        <v>0.6164881098738979</v>
+        <v>0.46625151166933454</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" s="1">
-        <v>6</v>
-      </c>
-      <c r="D62" s="1">
-        <v>5</v>
-      </c>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" si="1"/>
-        <v>1.4629948364888123E-2</v>
-      </c>
-      <c r="G62" s="1">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G62" s="1"/>
       <c r="H62" s="5">
         <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
-      </c>
-      <c r="I62" s="1">
-        <v>5</v>
-      </c>
-      <c r="J62" s="5">
-        <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K62" s="1">
-        <f t="shared" si="4"/>
-        <v>0.6164881098738979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>47</v>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C63" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" s="1">
         <v>5</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="1"/>
-        <v>1.4629948364888123E-2</v>
+        <v>1.2908777969018933E-2</v>
       </c>
       <c r="G63" s="1">
         <v>5</v>
@@ -3639,222 +3599,219 @@
         <v>1.4367816091954023E-2</v>
       </c>
       <c r="I63" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J63" s="5">
         <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
+        <v>1.4981273408239701E-2</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" si="4"/>
-        <v>0.6164881098738979</v>
+        <v>0.59056229136847027</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>3</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="1"/>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4629948364888123E-2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>6</v>
+      </c>
+      <c r="H64" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7241379310344827E-2</v>
+      </c>
+      <c r="I64" s="1">
+        <v>6</v>
+      </c>
+      <c r="J64" s="5">
+        <f t="shared" si="3"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K64" s="1">
+        <f t="shared" si="4"/>
+        <v>0.51374009156158162</v>
+      </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="1">
-        <v>6</v>
-      </c>
-      <c r="D65" s="1">
-        <v>6</v>
-      </c>
-      <c r="E65" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F65" s="5">
-        <f t="shared" si="1"/>
-        <v>1.549053356282272E-2</v>
-      </c>
-      <c r="G65" s="1">
-        <v>6</v>
-      </c>
-      <c r="H65" s="5">
-        <f t="shared" si="2"/>
-        <v>1.7241379310344827E-2</v>
-      </c>
-      <c r="I65" s="1">
-        <v>5</v>
-      </c>
-      <c r="J65" s="5">
-        <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K65" s="1">
-        <f t="shared" si="4"/>
-        <v>0.58224855037347722</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>48</v>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C66" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="1"/>
-        <v>1.549053356282272E-2</v>
+        <v>1.2048192771084338E-2</v>
       </c>
       <c r="G66" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H66" s="5">
         <f t="shared" si="2"/>
-        <v>2.0114942528735632E-2</v>
+        <v>1.4367816091954023E-2</v>
       </c>
       <c r="I66" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J66" s="5">
         <f t="shared" si="3"/>
-        <v>2.6217228464419477E-2</v>
+        <v>1.8726591760299626E-2</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" si="4"/>
-        <v>0.46625151166933454</v>
+        <v>0.50769609048438658</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>49</v>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C67" s="1">
         <v>6</v>
       </c>
       <c r="D67" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="1"/>
-        <v>1.549053356282272E-2</v>
+        <v>1.6351118760757316E-2</v>
       </c>
       <c r="G67" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H67" s="5">
         <f t="shared" si="2"/>
-        <v>2.0114942528735632E-2</v>
+        <v>2.2988505747126436E-2</v>
       </c>
       <c r="I67" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J67" s="5">
         <f t="shared" si="3"/>
-        <v>2.6217228464419477E-2</v>
+        <v>2.247191011235955E-2</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" si="4"/>
-        <v>0.46625151166933454</v>
-      </c>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+        <v>0.47776117948884489</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="1">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1">
+        <v>7</v>
+      </c>
       <c r="E68" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="1"/>
+        <v>1.8072289156626505E-2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>5</v>
+      </c>
       <c r="H68" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>1.4367816091954023E-2</v>
+      </c>
+      <c r="I68" s="1">
+        <v>6</v>
+      </c>
+      <c r="J68" s="5">
+        <f t="shared" si="3"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K68" s="1">
+        <f t="shared" si="4"/>
+        <v>0.70584481684619937</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C69" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D69" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E69" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="1"/>
-        <v>1.2908777969018933E-2</v>
+        <v>1.8072289156626505E-2</v>
       </c>
       <c r="G69" s="1">
         <v>5</v>
@@ -3864,151 +3821,128 @@
         <v>1.4367816091954023E-2</v>
       </c>
       <c r="I69" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J69" s="5">
         <f t="shared" si="3"/>
-        <v>1.4981273408239701E-2</v>
+        <v>2.247191011235955E-2</v>
       </c>
       <c r="K69" s="1">
         <f t="shared" si="4"/>
-        <v>0.59056229136847027</v>
-      </c>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>0.70584481684619937</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C70" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" s="1">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>4</v>
+      </c>
+      <c r="H70" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1494252873563218E-2</v>
+      </c>
+      <c r="I70" s="1">
         <v>5</v>
       </c>
-      <c r="E70" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="F70" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4629948364888123E-2</v>
-      </c>
-      <c r="G70" s="1">
-        <v>6</v>
-      </c>
-      <c r="H70" s="5">
-        <f t="shared" si="2"/>
-        <v>1.7241379310344827E-2</v>
-      </c>
-      <c r="I70" s="1">
-        <v>6</v>
-      </c>
       <c r="J70" s="5">
         <f t="shared" si="3"/>
-        <v>2.247191011235955E-2</v>
+        <v>1.8726591760299626E-2</v>
       </c>
       <c r="K70" s="1">
         <f t="shared" si="4"/>
-        <v>0.51374009156158162</v>
-      </c>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C72" s="1">
+        <v>0.57764183669663172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F71" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0327022375215147E-2</v>
+      </c>
+      <c r="G71" s="1">
         <v>5</v>
       </c>
-      <c r="D72" s="1">
-        <v>4</v>
-      </c>
-      <c r="E72" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F72" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2048192771084338E-2</v>
-      </c>
-      <c r="G72" s="1">
+      <c r="H71" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4367816091954023E-2</v>
+      </c>
+      <c r="I71" s="1">
         <v>5</v>
       </c>
-      <c r="H72" s="5">
-        <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
-      </c>
-      <c r="I72" s="1">
-        <v>5</v>
-      </c>
-      <c r="J72" s="5">
+      <c r="J71" s="5">
         <f t="shared" si="3"/>
         <v>1.8726591760299626E-2</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K71" s="1">
         <f t="shared" si="4"/>
-        <v>0.50769609048438658</v>
-      </c>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
+        <v>0.43516807755804565</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>3.6</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C73" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D73" s="1">
         <v>7</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F73" s="5">
         <f t="shared" si="1"/>
-        <v>1.6351118760757316E-2</v>
+        <v>2.1514629948364887E-2</v>
       </c>
       <c r="G73" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H73" s="5">
         <f t="shared" si="2"/>
-        <v>2.2988505747126436E-2</v>
+        <v>2.0114942528735632E-2</v>
       </c>
       <c r="I73" s="1">
         <v>6</v>
@@ -4019,38 +3953,33 @@
       </c>
       <c r="K73" s="1">
         <f t="shared" si="4"/>
-        <v>0.47776117948884489</v>
-      </c>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
+        <v>0.6862524395064441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C74" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D74" s="1">
         <v>7</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F74" s="5">
         <f t="shared" si="1"/>
-        <v>1.8072289156626505E-2</v>
+        <v>2.1514629948364887E-2</v>
       </c>
       <c r="G74" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H74" s="5">
         <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
+        <v>2.0114942528735632E-2</v>
       </c>
       <c r="I74" s="1">
         <v>6</v>
@@ -4061,37 +3990,33 @@
       </c>
       <c r="K74" s="1">
         <f t="shared" si="4"/>
-        <v>0.70584481684619937</v>
-      </c>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.6862524395064441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C75" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D75" s="1">
         <v>7</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F75" s="5">
         <f t="shared" si="1"/>
-        <v>1.8072289156626505E-2</v>
+        <v>2.1514629948364887E-2</v>
       </c>
       <c r="G75" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H75" s="5">
         <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
+        <v>2.0114942528735632E-2</v>
       </c>
       <c r="I75" s="1">
         <v>6</v>
@@ -4102,113 +4027,125 @@
       </c>
       <c r="K75" s="1">
         <f t="shared" si="4"/>
-        <v>0.70584481684619937</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C76" s="1">
-        <v>5</v>
-      </c>
-      <c r="D76" s="1">
+        <v>0.6862524395064441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>4</v>
       </c>
-      <c r="E76" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
+      <c r="B76" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="1"/>
       <c r="F76" s="5">
         <f t="shared" si="1"/>
-        <v>1.2048192771084338E-2</v>
-      </c>
-      <c r="G76" s="1">
-        <v>4</v>
-      </c>
-      <c r="H76" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1494252873563218E-2</v>
-      </c>
-      <c r="I76" s="1">
-        <v>5</v>
-      </c>
-      <c r="J76" s="5">
-        <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K76" s="1">
-        <f t="shared" si="4"/>
-        <v>0.57764183669663172</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B77" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="H76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C77" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D77" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E77" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F77" s="5">
         <f t="shared" si="1"/>
-        <v>1.0327022375215147E-2</v>
+        <v>1.7211703958691909E-2</v>
       </c>
       <c r="G77" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H77" s="5">
         <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
+        <v>2.0114942528735632E-2</v>
       </c>
       <c r="I77" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J77" s="5">
         <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
+        <v>2.6217228464419477E-2</v>
       </c>
       <c r="K77" s="1">
         <f t="shared" si="4"/>
-        <v>0.43516807755804565</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.5180572351881495</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B79" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="C78" s="1">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F78" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7211703958691909E-2</v>
+      </c>
+      <c r="G78" s="1">
+        <v>7</v>
+      </c>
+      <c r="H78" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0114942528735632E-2</v>
+      </c>
+      <c r="I78" s="1">
+        <v>7</v>
+      </c>
+      <c r="J78" s="5">
+        <f t="shared" si="3"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K78" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5180572351881495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>4.3</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C79" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D79" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E79" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F79" s="5">
         <f t="shared" si="1"/>
-        <v>2.1514629948364887E-2</v>
+        <v>1.7211703958691909E-2</v>
       </c>
       <c r="G79" s="1">
         <v>7</v>
@@ -4218,34 +4155,37 @@
         <v>2.0114942528735632E-2</v>
       </c>
       <c r="I79" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J79" s="5">
         <f t="shared" si="3"/>
-        <v>2.247191011235955E-2</v>
+        <v>2.6217228464419477E-2</v>
       </c>
       <c r="K79" s="1">
         <f t="shared" si="4"/>
-        <v>0.6862524395064441</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B80" s="1" t="s">
-        <v>60</v>
+        <v>0.5180572351881495</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C80" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D80" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E80" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F80" s="5">
         <f t="shared" si="1"/>
-        <v>2.1514629948364887E-2</v>
+        <v>1.7211703958691909E-2</v>
       </c>
       <c r="G80" s="1">
         <v>7</v>
@@ -4255,34 +4195,37 @@
         <v>2.0114942528735632E-2</v>
       </c>
       <c r="I80" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J80" s="5">
         <f t="shared" si="3"/>
-        <v>2.247191011235955E-2</v>
+        <v>2.6217228464419477E-2</v>
       </c>
       <c r="K80" s="1">
         <f t="shared" si="4"/>
-        <v>0.6862524395064441</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="1" t="s">
-        <v>61</v>
+        <v>0.5180572351881495</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>4.5</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C81" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D81" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E81" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F81" s="5">
         <f t="shared" si="1"/>
-        <v>2.1514629948364887E-2</v>
+        <v>1.549053356282272E-2</v>
       </c>
       <c r="G81" s="1">
         <v>7</v>
@@ -4300,17 +4243,20 @@
       </c>
       <c r="K81" s="1">
         <f t="shared" si="4"/>
-        <v>0.6862524395064441</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.49410175644463977</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E82" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F82" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4319,33 +4265,30 @@
       <c r="J82" s="5"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>63</v>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C83" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D83" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" ref="E83:E88" si="5">C83*2+D83</f>
+        <v>27</v>
       </c>
       <c r="F83" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7211703958691909E-2</v>
+        <f t="shared" ref="F83:F88" si="6">E83/1162</f>
+        <v>2.323580034423408E-2</v>
       </c>
       <c r="G83" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H83" s="5">
-        <f t="shared" si="2"/>
-        <v>2.0114942528735632E-2</v>
+        <f t="shared" ref="H83:H88" si="7">G83/348</f>
+        <v>2.2988505747126436E-2</v>
       </c>
       <c r="I83" s="1">
         <v>7</v>
@@ -4356,36 +4299,33 @@
       </c>
       <c r="K83" s="1">
         <f t="shared" si="4"/>
-        <v>0.5180572351881495</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>4.2</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>64</v>
+        <v>0.64370233297103563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C84" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84" s="1">
         <v>6</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="F84" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7211703958691909E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.549053356282272E-2</v>
       </c>
       <c r="G84" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H84" s="5">
-        <f t="shared" si="2"/>
-        <v>2.0114942528735632E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.2988505747126436E-2</v>
       </c>
       <c r="I84" s="1">
         <v>7</v>
@@ -4396,365 +4336,152 @@
       </c>
       <c r="K84" s="1">
         <f t="shared" si="4"/>
-        <v>0.5180572351881495</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.4291348886473571</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" s="1">
-        <v>7</v>
-      </c>
-      <c r="D85" s="1">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F85" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7211703958691909E-2</v>
-      </c>
-      <c r="G85" s="1">
-        <v>7</v>
-      </c>
-      <c r="H85" s="5">
-        <f t="shared" si="2"/>
-        <v>2.0114942528735632E-2</v>
-      </c>
-      <c r="I85" s="1">
-        <v>7</v>
-      </c>
-      <c r="J85" s="5">
-        <f t="shared" si="3"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K85" s="1">
-        <f t="shared" si="4"/>
-        <v>0.5180572351881495</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" s="1">
-        <v>7</v>
-      </c>
-      <c r="D86" s="1">
-        <v>6</v>
-      </c>
-      <c r="E86" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F86" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7211703958691909E-2</v>
-      </c>
-      <c r="G86" s="1">
-        <v>7</v>
-      </c>
-      <c r="H86" s="5">
-        <f t="shared" si="2"/>
-        <v>2.0114942528735632E-2</v>
-      </c>
-      <c r="I86" s="1">
-        <v>7</v>
-      </c>
-      <c r="J86" s="5">
-        <f t="shared" si="3"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K86" s="1">
-        <f t="shared" si="4"/>
-        <v>0.5180572351881495</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>4.5</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="1">
-        <v>6</v>
-      </c>
-      <c r="D87" s="1">
-        <v>6</v>
-      </c>
-      <c r="E87" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F87" s="5">
-        <f t="shared" si="1"/>
-        <v>1.549053356282272E-2</v>
-      </c>
-      <c r="G87" s="1">
-        <v>7</v>
-      </c>
-      <c r="H87" s="5">
-        <f t="shared" si="2"/>
-        <v>2.0114942528735632E-2</v>
-      </c>
-      <c r="I87" s="1">
-        <v>6</v>
-      </c>
-      <c r="J87" s="5">
-        <f t="shared" si="3"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K87" s="1">
-        <f t="shared" si="4"/>
-        <v>0.49410175644463977</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E88" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F88" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C89" s="1">
-        <v>9</v>
-      </c>
-      <c r="D89" s="1">
-        <v>9</v>
-      </c>
-      <c r="E89" s="1">
-        <f t="shared" ref="E89:E94" si="5">C89*2+D89</f>
-        <v>27</v>
-      </c>
-      <c r="F89" s="5">
-        <f t="shared" ref="F89:F94" si="6">E89/1162</f>
-        <v>2.323580034423408E-2</v>
-      </c>
-      <c r="G89" s="1">
-        <v>8</v>
-      </c>
-      <c r="H89" s="5">
-        <f t="shared" ref="H89:H94" si="7">G89/348</f>
-        <v>2.2988505747126436E-2</v>
-      </c>
-      <c r="I89" s="1">
-        <v>7</v>
-      </c>
-      <c r="J89" s="5">
-        <f t="shared" si="3"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K89" s="1">
-        <f t="shared" si="4"/>
-        <v>0.64370233297103563</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C90" s="1">
-        <v>6</v>
-      </c>
-      <c r="D90" s="1">
-        <v>6</v>
-      </c>
-      <c r="E90" s="1">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="F90" s="5">
-        <f t="shared" si="6"/>
-        <v>1.549053356282272E-2</v>
-      </c>
-      <c r="G90" s="1">
-        <v>8</v>
-      </c>
-      <c r="H90" s="5">
-        <f t="shared" si="7"/>
-        <v>2.2988505747126436E-2</v>
-      </c>
-      <c r="I90" s="1">
-        <v>7</v>
-      </c>
-      <c r="J90" s="5">
-        <f t="shared" si="3"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K90" s="1">
-        <f t="shared" si="4"/>
-        <v>0.4291348886473571</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>5</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E91" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F85" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" s="1">
-        <v>7</v>
-      </c>
-      <c r="D92" s="1">
+      <c r="H85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="1">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1">
         <v>9</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E86" s="1">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F86" s="5">
         <f t="shared" si="6"/>
         <v>1.9793459552495698E-2</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G86" s="1">
         <v>9</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H86" s="5">
         <f t="shared" si="7"/>
         <v>2.5862068965517241E-2</v>
       </c>
-      <c r="I92" s="1">
-        <v>7</v>
-      </c>
-      <c r="J92" s="5">
-        <f t="shared" ref="J92:J94" si="8">I92/267</f>
+      <c r="I86" s="1">
+        <v>7</v>
+      </c>
+      <c r="J86" s="5">
+        <f t="shared" ref="J86:J88" si="8">I86/267</f>
         <v>2.6217228464419477E-2</v>
       </c>
-      <c r="K92" s="1">
-        <f t="shared" ref="K92:K94" si="9">F92/(H92+J92*0.5)</f>
+      <c r="K86" s="1">
+        <f t="shared" ref="K86:K88" si="9">F86/(H86+J86*0.5)</f>
         <v>0.50790640369502627</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C93" s="1">
-        <v>7</v>
-      </c>
-      <c r="D93" s="1">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="1">
+        <v>7</v>
+      </c>
+      <c r="D87" s="1">
         <v>9</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E87" s="1">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F87" s="5">
         <f t="shared" si="6"/>
         <v>1.9793459552495698E-2</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G87" s="1">
         <v>9</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H87" s="5">
         <f t="shared" si="7"/>
         <v>2.5862068965517241E-2</v>
       </c>
-      <c r="I93" s="1">
-        <v>7</v>
-      </c>
-      <c r="J93" s="5">
+      <c r="I87" s="1">
+        <v>7</v>
+      </c>
+      <c r="J87" s="5">
         <f t="shared" si="8"/>
         <v>2.6217228464419477E-2</v>
       </c>
-      <c r="K93" s="1">
+      <c r="K87" s="1">
         <f t="shared" si="9"/>
         <v>0.50790640369502627</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C94" s="1">
-        <v>7</v>
-      </c>
-      <c r="D94" s="1">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="1">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1">
         <v>9</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E88" s="1">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F88" s="5">
         <f t="shared" si="6"/>
         <v>1.9793459552495698E-2</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G88" s="1">
         <v>9</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H88" s="5">
         <f t="shared" si="7"/>
         <v>2.5862068965517241E-2</v>
       </c>
-      <c r="I94" s="1">
-        <v>7</v>
-      </c>
-      <c r="J94" s="5">
+      <c r="I88" s="1">
+        <v>7</v>
+      </c>
+      <c r="J88" s="5">
         <f t="shared" si="8"/>
         <v>2.6217228464419477E-2</v>
       </c>
-      <c r="K94" s="1">
+      <c r="K88" s="1">
         <f t="shared" si="9"/>
         <v>0.50790640369502627</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E95">
-        <f>SUM(E23:E94)</f>
-        <v>1189</v>
-      </c>
-      <c r="F95" s="8"/>
-      <c r="G95">
-        <f>SUM(G24:G94)</f>
-        <v>352</v>
-      </c>
-      <c r="I95">
-        <f>SUM(I24:I94)</f>
-        <v>269</v>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <f>SUM(E23:E88)</f>
+        <v>1122</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89">
+        <f>SUM(G24:G88)</f>
+        <v>327</v>
+      </c>
+      <c r="I89">
+        <f>SUM(I24:I88)</f>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/需求优先级打分/SRA2023-G17-需求优先级打分（教师用户）.xlsx
+++ b/需求优先级打分/SRA2023-G17-需求优先级打分（教师用户）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\文档\GitHub\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C898392B-2133-4366-8F7D-B8EAEFC81CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B20FC61-BCCA-4F3D-A2FB-358F646B4925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1965" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  批改作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    作业评分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,6 +342,10 @@
   </si>
   <si>
     <t>帖子标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  作业讨论区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1602,7 +1602,7 @@
   <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2396,7 +2396,7 @@
         <v>1.9</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1">
         <v>9</v>
@@ -2439,7 +2439,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1">
         <v>8</v>
@@ -3170,7 +3170,7 @@
         <v>24</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3192,7 +3192,7 @@
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="1">
         <v>7</v>
@@ -3276,7 +3276,7 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="1">
         <v>7</v>
@@ -3360,7 +3360,7 @@
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="1">
         <v>6</v>
@@ -3661,7 +3661,7 @@
         <v>3.5</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>

--- a/需求优先级打分/SRA2023-G17-需求优先级打分（教师用户）.xlsx
+++ b/需求优先级打分/SRA2023-G17-需求优先级打分（教师用户）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\文档\GitHub\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B20FC61-BCCA-4F3D-A2FB-358F646B4925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DA5AB7-55DD-4D3A-9AD0-B44FD8FB9DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>相对权重</t>
   </si>
@@ -346,6 +346,10 @@
   </si>
   <si>
     <t xml:space="preserve">  作业讨论区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    新建群聊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1599,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1670,7 +1674,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1">
         <f>SUM((C:C)*2,(D:D))</f>
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2100,18 +2104,18 @@
         <v>9</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ref="E25:E82" si="0">C25*2+D25</f>
+        <f t="shared" ref="E25:E83" si="0">C25*2+D25</f>
         <v>27</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" ref="F25:F82" si="1">E25/1162</f>
+        <f t="shared" ref="F25:F83" si="1">E25/1162</f>
         <v>2.323580034423408E-2</v>
       </c>
       <c r="G25" s="1">
         <v>4</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" ref="H25:H81" si="2">G25/348</f>
+        <f t="shared" ref="H25:H82" si="2">G25/348</f>
         <v>1.1494252873563218E-2</v>
       </c>
       <c r="I25" s="1">
@@ -2162,11 +2166,11 @@
         <v>2</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" ref="J26:J84" si="3">I26/267</f>
+        <f t="shared" ref="J26:J85" si="3">I26/267</f>
         <v>7.4906367041198503E-3</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" ref="K26:K84" si="4">F26/(H26+J26*0.5)</f>
+        <f t="shared" ref="K26:K85" si="4">F26/(H26+J26*0.5)</f>
         <v>1.235303321766823</v>
       </c>
       <c r="L26" s="1"/>
@@ -2408,8 +2412,8 @@
         <v>27</v>
       </c>
       <c r="F32" s="5">
-        <f>E32/E89</f>
-        <v>2.4064171122994651E-2</v>
+        <f>E32/E90</f>
+        <v>2.368421052631579E-2</v>
       </c>
       <c r="G32" s="1">
         <v>5</v>
@@ -2427,7 +2431,7 @@
       </c>
       <c r="K32" s="1">
         <f>F32/(H32*1+J32*0.5)</f>
-        <v>1.2827155387989073</v>
+        <v>1.2624621355547141</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2451,8 +2455,8 @@
         <v>25</v>
       </c>
       <c r="F33" s="5">
-        <f>E33/E89</f>
-        <v>2.2281639928698752E-2</v>
+        <f>E33/E90</f>
+        <v>2.1929824561403508E-2</v>
       </c>
       <c r="G33" s="1">
         <v>5</v>
@@ -2470,7 +2474,7 @@
       </c>
       <c r="K33" s="1">
         <f>F33/(H33*1+J33*0.5)</f>
-        <v>1.1876995729619513</v>
+        <v>1.1689464218099204</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="2"/>
@@ -2980,7 +2984,7 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C47" s="1">
         <v>6</v>
@@ -3020,72 +3024,72 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6</v>
+      </c>
       <c r="E48" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>1.549053356282272E-2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>7</v>
+      </c>
       <c r="H48" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="1"/>
+        <v>2.0114942528735632E-2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="4"/>
+        <v>0.60197340716153735</v>
+      </c>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="M48" s="2"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="1">
-        <v>7</v>
-      </c>
-      <c r="D49" s="1">
-        <v>7</v>
-      </c>
+      <c r="A49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="1"/>
-        <v>1.8072289156626505E-2</v>
-      </c>
-      <c r="G49" s="1">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="5">
         <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
-      </c>
-      <c r="I49" s="1">
-        <v>6</v>
-      </c>
-      <c r="J49" s="5">
-        <f t="shared" si="3"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="4"/>
-        <v>0.70584481684619937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -3093,8 +3097,8 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="2" t="s">
-        <v>36</v>
+      <c r="B50" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C50" s="1">
         <v>7</v>
@@ -3136,7 +3140,7 @@
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C51" s="1">
         <v>7</v>
@@ -3152,37 +3156,55 @@
         <f t="shared" si="1"/>
         <v>1.8072289156626505E-2</v>
       </c>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1">
+        <v>5</v>
+      </c>
       <c r="H51" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="1"/>
+        <v>1.4367816091954023E-2</v>
+      </c>
+      <c r="I51" s="1">
+        <v>6</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="3"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="4"/>
+        <v>0.70584481684619937</v>
+      </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="C52" s="1">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8072289156626505E-2</v>
+      </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="5"/>
+      <c r="H52" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I52" s="1"/>
-      <c r="J52" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="J52" s="5"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -3190,42 +3212,24 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="A53" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="1">
-        <v>7</v>
-      </c>
-      <c r="D53" s="1">
-        <v>6</v>
-      </c>
-      <c r="E53" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F53" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7211703958691909E-2</v>
-      </c>
-      <c r="G53" s="1">
-        <v>9</v>
-      </c>
-      <c r="H53" s="5">
-        <f t="shared" si="2"/>
-        <v>2.5862068965517241E-2</v>
-      </c>
-      <c r="I53" s="1">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="1"/>
       <c r="J53" s="5">
         <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="4"/>
-        <v>0.48861676902713641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -3234,7 +3238,7 @@
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C54" s="1">
         <v>7</v>
@@ -3276,7 +3280,7 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C55" s="1">
         <v>7</v>
@@ -3318,7 +3322,7 @@
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C56" s="1">
         <v>7</v>
@@ -3360,48 +3364,69 @@
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C57" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7211703958691909E-2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>9</v>
+      </c>
+      <c r="H57" s="5">
+        <f t="shared" si="2"/>
+        <v>2.5862068965517241E-2</v>
+      </c>
+      <c r="I57" s="1">
         <v>5</v>
       </c>
-      <c r="E57" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="F57" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4629948364888123E-2</v>
-      </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="1"/>
+      <c r="J57" s="5">
+        <f t="shared" si="3"/>
+        <v>1.8726591760299626E-2</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48861676902713641</v>
+      </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>3</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="5"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4629948364888123E-2</v>
+      </c>
       <c r="G58" s="1"/>
-      <c r="H58" s="5"/>
+      <c r="H58" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="5"/>
       <c r="K58" s="1"/>
@@ -3412,43 +3437,20 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="1">
-        <v>6</v>
-      </c>
-      <c r="D59" s="1">
-        <v>6</v>
-      </c>
-      <c r="E59" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F59" s="5">
-        <f t="shared" si="1"/>
-        <v>1.549053356282272E-2</v>
-      </c>
-      <c r="G59" s="1">
-        <v>6</v>
-      </c>
-      <c r="H59" s="5">
-        <f t="shared" si="2"/>
-        <v>1.7241379310344827E-2</v>
-      </c>
-      <c r="I59" s="1">
-        <v>5</v>
-      </c>
-      <c r="J59" s="5">
-        <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" si="4"/>
-        <v>0.58224855037347722</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -3456,10 +3458,10 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C60" s="1">
         <v>6</v>
@@ -3476,22 +3478,22 @@
         <v>1.549053356282272E-2</v>
       </c>
       <c r="G60" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H60" s="5">
         <f t="shared" si="2"/>
-        <v>2.0114942528735632E-2</v>
+        <v>1.7241379310344827E-2</v>
       </c>
       <c r="I60" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J60" s="5">
         <f t="shared" si="3"/>
-        <v>2.6217228464419477E-2</v>
+        <v>1.8726591760299626E-2</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="4"/>
-        <v>0.46625151166933454</v>
+        <v>0.58224855037347722</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3500,10 +3502,10 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="1">
         <v>6</v>
@@ -3544,71 +3546,73 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C62" s="1">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6</v>
+      </c>
       <c r="E62" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="1"/>
+        <v>1.549053356282272E-2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>7</v>
+      </c>
       <c r="H62" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="1"/>
+        <v>2.0114942528735632E-2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>7</v>
+      </c>
+      <c r="J62" s="5">
+        <f t="shared" si="3"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="4"/>
+        <v>0.46625151166933454</v>
+      </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="1">
-        <v>5</v>
-      </c>
-      <c r="D63" s="1">
-        <v>5</v>
-      </c>
+      <c r="A63" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="1"/>
-        <v>1.2908777969018933E-2</v>
-      </c>
-      <c r="G63" s="1">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G63" s="1"/>
       <c r="H63" s="5">
         <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
-      </c>
-      <c r="I63" s="1">
-        <v>4</v>
-      </c>
-      <c r="J63" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4981273408239701E-2</v>
-      </c>
-      <c r="K63" s="1">
-        <f t="shared" si="4"/>
-        <v>0.59056229136847027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -3617,39 +3621,39 @@
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C64" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64" s="1">
         <v>5</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" si="1"/>
-        <v>1.4629948364888123E-2</v>
+        <v>1.2908777969018933E-2</v>
       </c>
       <c r="G64" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H64" s="5">
         <f t="shared" si="2"/>
-        <v>1.7241379310344827E-2</v>
+        <v>1.4367816091954023E-2</v>
       </c>
       <c r="I64" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J64" s="5">
         <f t="shared" si="3"/>
-        <v>2.247191011235955E-2</v>
+        <v>1.4981273408239701E-2</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" si="4"/>
-        <v>0.51374009156158162</v>
+        <v>0.59056229136847027</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3657,63 +3661,63 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="1"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4629948364888123E-2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>6</v>
+      </c>
+      <c r="H65" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7241379310344827E-2</v>
+      </c>
+      <c r="I65" s="1">
+        <v>6</v>
+      </c>
+      <c r="J65" s="5">
+        <f t="shared" si="3"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="4"/>
+        <v>0.51374009156158162</v>
+      </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="1">
-        <v>5</v>
-      </c>
-      <c r="D66" s="1">
-        <v>4</v>
-      </c>
-      <c r="E66" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F66" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2048192771084338E-2</v>
-      </c>
-      <c r="G66" s="1">
-        <v>5</v>
-      </c>
-      <c r="H66" s="5">
-        <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
-      </c>
-      <c r="I66" s="1">
-        <v>5</v>
-      </c>
-      <c r="J66" s="5">
-        <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K66" s="1">
-        <f t="shared" si="4"/>
-        <v>0.50769609048438658</v>
-      </c>
+      <c r="A66" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -3722,66 +3726,70 @@
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C67" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="1"/>
-        <v>1.6351118760757316E-2</v>
+        <v>1.2048192771084338E-2</v>
       </c>
       <c r="G67" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H67" s="5">
         <f t="shared" si="2"/>
-        <v>2.2988505747126436E-2</v>
+        <v>1.4367816091954023E-2</v>
       </c>
       <c r="I67" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J67" s="5">
         <f t="shared" si="3"/>
-        <v>2.247191011235955E-2</v>
+        <v>1.8726591760299626E-2</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" si="4"/>
-        <v>0.47776117948884489</v>
-      </c>
+        <v>0.50769609048438658</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C68" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1">
         <v>7</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="1"/>
-        <v>1.8072289156626505E-2</v>
+        <v>1.6351118760757316E-2</v>
       </c>
       <c r="G68" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H68" s="5">
         <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
+        <v>2.2988505747126436E-2</v>
       </c>
       <c r="I68" s="1">
         <v>6</v>
@@ -3792,12 +3800,13 @@
       </c>
       <c r="K68" s="1">
         <f t="shared" si="4"/>
-        <v>0.70584481684619937</v>
+        <v>0.47776117948884489</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C69" s="1">
         <v>7</v>
@@ -3834,65 +3843,65 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C70" s="1">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1">
+        <v>7</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8072289156626505E-2</v>
+      </c>
+      <c r="G70" s="1">
         <v>5</v>
       </c>
-      <c r="D70" s="1">
-        <v>4</v>
-      </c>
-      <c r="E70" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F70" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2048192771084338E-2</v>
-      </c>
-      <c r="G70" s="1">
-        <v>4</v>
-      </c>
       <c r="H70" s="5">
         <f t="shared" si="2"/>
-        <v>1.1494252873563218E-2</v>
+        <v>1.4367816091954023E-2</v>
       </c>
       <c r="I70" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J70" s="5">
         <f t="shared" si="3"/>
-        <v>1.8726591760299626E-2</v>
+        <v>2.247191011235955E-2</v>
       </c>
       <c r="K70" s="1">
         <f t="shared" si="4"/>
-        <v>0.57764183669663172</v>
+        <v>0.70584481684619937</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C71" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" s="1">
         <v>4</v>
       </c>
       <c r="E71" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F71" s="5">
         <f t="shared" si="1"/>
-        <v>1.0327022375215147E-2</v>
+        <v>1.2048192771084338E-2</v>
       </c>
       <c r="G71" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H71" s="5">
         <f t="shared" si="2"/>
-        <v>1.4367816091954023E-2</v>
+        <v>1.1494252873563218E-2</v>
       </c>
       <c r="I71" s="1">
         <v>5</v>
@@ -3903,62 +3912,62 @@
       </c>
       <c r="K71" s="1">
         <f t="shared" si="4"/>
+        <v>0.57764183669663172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F72" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0327022375215147E-2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>5</v>
+      </c>
+      <c r="H72" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4367816091954023E-2</v>
+      </c>
+      <c r="I72" s="1">
+        <v>5</v>
+      </c>
+      <c r="J72" s="5">
+        <f t="shared" si="3"/>
+        <v>1.8726591760299626E-2</v>
+      </c>
+      <c r="K72" s="1">
+        <f t="shared" si="4"/>
         <v>0.43516807755804565</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>3.6</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="1">
-        <v>9</v>
-      </c>
-      <c r="D73" s="1">
-        <v>7</v>
-      </c>
-      <c r="E73" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F73" s="5">
-        <f t="shared" si="1"/>
-        <v>2.1514629948364887E-2</v>
-      </c>
-      <c r="G73" s="1">
-        <v>7</v>
-      </c>
-      <c r="H73" s="5">
-        <f t="shared" si="2"/>
-        <v>2.0114942528735632E-2</v>
-      </c>
-      <c r="I73" s="1">
-        <v>6</v>
-      </c>
-      <c r="J73" s="5">
-        <f t="shared" si="3"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K73" s="1">
-        <f t="shared" si="4"/>
-        <v>0.6862524395064441</v>
-      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C74" s="1">
         <v>9</v>
@@ -3995,7 +4004,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" s="1">
         <v>9</v>
@@ -4031,67 +4040,64 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>4</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="1">
+        <v>9</v>
+      </c>
+      <c r="D76" s="1">
+        <v>7</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="F76" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="1"/>
+        <v>2.1514629948364887E-2</v>
+      </c>
+      <c r="G76" s="1">
+        <v>7</v>
+      </c>
+      <c r="H76" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0114942528735632E-2</v>
+      </c>
+      <c r="I76" s="1">
+        <v>6</v>
+      </c>
+      <c r="J76" s="5">
+        <f t="shared" si="3"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K76" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6862524395064441</v>
+      </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="1">
-        <v>7</v>
-      </c>
-      <c r="D77" s="1">
-        <v>6</v>
-      </c>
-      <c r="E77" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E77" s="1"/>
       <c r="F77" s="5">
         <f t="shared" si="1"/>
-        <v>1.7211703958691909E-2</v>
-      </c>
-      <c r="G77" s="1">
-        <v>7</v>
-      </c>
-      <c r="H77" s="5">
-        <f t="shared" si="2"/>
-        <v>2.0114942528735632E-2</v>
-      </c>
-      <c r="I77" s="1">
-        <v>7</v>
-      </c>
-      <c r="J77" s="5">
-        <f t="shared" si="3"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K77" s="1">
-        <f t="shared" si="4"/>
-        <v>0.5180572351881495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="1"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C78" s="1">
         <v>7</v>
@@ -4128,10 +4134,10 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79" s="1">
         <v>7</v>
@@ -4168,10 +4174,10 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" s="1">
         <v>7</v>
@@ -4208,24 +4214,24 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C81" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81" s="1">
         <v>6</v>
       </c>
       <c r="E81" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F81" s="5">
         <f t="shared" si="1"/>
-        <v>1.549053356282272E-2</v>
+        <v>1.7211703958691909E-2</v>
       </c>
       <c r="G81" s="1">
         <v>7</v>
@@ -4235,169 +4241,172 @@
         <v>2.0114942528735632E-2</v>
       </c>
       <c r="I81" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J81" s="5">
         <f t="shared" si="3"/>
-        <v>2.247191011235955E-2</v>
+        <v>2.6217228464419477E-2</v>
       </c>
       <c r="K81" s="1">
         <f t="shared" si="4"/>
-        <v>0.49410175644463977</v>
+        <v>0.5180572351881495</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
+        <v>4.5</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="1">
+        <v>6</v>
+      </c>
+      <c r="D82" s="1">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F82" s="5">
+        <f t="shared" si="1"/>
+        <v>1.549053356282272E-2</v>
+      </c>
+      <c r="G82" s="1">
+        <v>7</v>
+      </c>
+      <c r="H82" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0114942528735632E-2</v>
+      </c>
+      <c r="I82" s="1">
+        <v>6</v>
+      </c>
+      <c r="J82" s="5">
+        <f t="shared" si="3"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K82" s="1">
+        <f t="shared" si="4"/>
+        <v>0.49410175644463977</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E83" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F83" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
+      <c r="H83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C84" s="1">
         <v>9</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D84" s="1">
         <v>9</v>
       </c>
-      <c r="E83" s="1">
-        <f t="shared" ref="E83:E88" si="5">C83*2+D83</f>
+      <c r="E84" s="1">
+        <f t="shared" ref="E84:E89" si="5">C84*2+D84</f>
         <v>27</v>
       </c>
-      <c r="F83" s="5">
-        <f t="shared" ref="F83:F88" si="6">E83/1162</f>
+      <c r="F84" s="5">
+        <f t="shared" ref="F84:F89" si="6">E84/1162</f>
         <v>2.323580034423408E-2</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G84" s="1">
         <v>8</v>
       </c>
-      <c r="H83" s="5">
-        <f t="shared" ref="H83:H88" si="7">G83/348</f>
+      <c r="H84" s="5">
+        <f t="shared" ref="H84:H89" si="7">G84/348</f>
         <v>2.2988505747126436E-2</v>
       </c>
-      <c r="I83" s="1">
-        <v>7</v>
-      </c>
-      <c r="J83" s="5">
+      <c r="I84" s="1">
+        <v>7</v>
+      </c>
+      <c r="J84" s="5">
         <f t="shared" si="3"/>
         <v>2.6217228464419477E-2</v>
       </c>
-      <c r="K83" s="1">
+      <c r="K84" s="1">
         <f t="shared" si="4"/>
         <v>0.64370233297103563</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B84" s="2" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C84" s="1">
-        <v>6</v>
-      </c>
-      <c r="D84" s="1">
-        <v>6</v>
-      </c>
-      <c r="E84" s="1">
+      <c r="C85" s="1">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F85" s="5">
         <f t="shared" si="6"/>
         <v>1.549053356282272E-2</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G85" s="1">
         <v>8</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H85" s="5">
         <f t="shared" si="7"/>
         <v>2.2988505747126436E-2</v>
       </c>
-      <c r="I84" s="1">
-        <v>7</v>
-      </c>
-      <c r="J84" s="5">
+      <c r="I85" s="1">
+        <v>7</v>
+      </c>
+      <c r="J85" s="5">
         <f t="shared" si="3"/>
         <v>2.6217228464419477E-2</v>
       </c>
-      <c r="K84" s="1">
+      <c r="K85" s="1">
         <f t="shared" si="4"/>
         <v>0.4291348886473571</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>5</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E86" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F86" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B86" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" s="1">
-        <v>7</v>
-      </c>
-      <c r="D86" s="1">
-        <v>9</v>
-      </c>
-      <c r="E86" s="1">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="F86" s="5">
-        <f t="shared" si="6"/>
-        <v>1.9793459552495698E-2</v>
-      </c>
-      <c r="G86" s="1">
-        <v>9</v>
-      </c>
-      <c r="H86" s="5">
-        <f t="shared" si="7"/>
-        <v>2.5862068965517241E-2</v>
-      </c>
-      <c r="I86" s="1">
-        <v>7</v>
-      </c>
-      <c r="J86" s="5">
-        <f t="shared" ref="J86:J88" si="8">I86/267</f>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K86" s="1">
-        <f t="shared" ref="K86:K88" si="9">F86/(H86+J86*0.5)</f>
-        <v>0.50790640369502627</v>
-      </c>
+      <c r="H86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C87" s="1">
         <v>7</v>
@@ -4424,17 +4433,17 @@
         <v>7</v>
       </c>
       <c r="J87" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J87:J89" si="8">I87/267</f>
         <v>2.6217228464419477E-2</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="K87:K89" si="9">F87/(H87+J87*0.5)</f>
         <v>0.50790640369502627</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C88" s="1">
         <v>7</v>
@@ -4470,18 +4479,55 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E89">
-        <f>SUM(E23:E88)</f>
-        <v>1122</v>
-      </c>
-      <c r="F89" s="7"/>
-      <c r="G89">
-        <f>SUM(G24:G88)</f>
-        <v>327</v>
-      </c>
-      <c r="I89">
-        <f>SUM(I24:I88)</f>
-        <v>238</v>
+      <c r="B89" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="1">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1">
+        <v>9</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="F89" s="5">
+        <f t="shared" si="6"/>
+        <v>1.9793459552495698E-2</v>
+      </c>
+      <c r="G89" s="1">
+        <v>9</v>
+      </c>
+      <c r="H89" s="5">
+        <f t="shared" si="7"/>
+        <v>2.5862068965517241E-2</v>
+      </c>
+      <c r="I89" s="1">
+        <v>7</v>
+      </c>
+      <c r="J89" s="5">
+        <f t="shared" si="8"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K89" s="1">
+        <f t="shared" si="9"/>
+        <v>0.50790640369502627</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <f>SUM(E23:E89)</f>
+        <v>1140</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90">
+        <f>SUM(G24:G89)</f>
+        <v>334</v>
+      </c>
+      <c r="I90">
+        <f>SUM(I24:I89)</f>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
